--- a/taller 5.xlsx
+++ b/taller 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B12\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CACBE0D0-A1A4-4E84-B371-7AC01245C158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC441E50-7F6E-4829-8A3B-8E1FC3EC8DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AB471C53-8350-49F8-A394-FC8B89335078}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +89,14 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -129,14 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -145,6 +147,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +531,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,186 +543,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R1" s="8"/>
+      <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="R2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="R3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="R4" s="8"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="R4" s="6"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="R5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="R5" s="6"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="R6" s="8"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>17</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>16</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>15</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>14</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>13</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>12</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>11</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="5">
         <f>PRODUCT(C7:J7)</f>
         <v>1764322560</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="6"/>
     </row>
     <row r="8" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R9" s="8"/>
+      <c r="R9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="R10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="R10" s="6"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="1"/>
       <c r="J11">
         <v>18</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="2">
         <v>17</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="2">
         <v>16</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <v>15</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <v>14</v>
       </c>
       <c r="O11">
         <f>PRODUCT(J11:N11)</f>
         <v>1028160</v>
       </c>
-      <c r="R11" s="8"/>
+      <c r="R11" s="6"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
-      <c r="P12" s="7">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="1"/>
+      <c r="P12" s="5">
         <f>O11*O13</f>
         <v>61689600</v>
       </c>
-      <c r="R12" s="8"/>
+      <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="1"/>
       <c r="J13">
         <v>5</v>
       </c>
@@ -723,113 +732,113 @@
       <c r="L13">
         <v>3</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="4">
         <v>2</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="4">
         <v>1</v>
       </c>
       <c r="O13">
         <f>PRODUCT(J13:L13)</f>
         <v>60</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R14" s="8"/>
+      <c r="R14" s="6"/>
     </row>
     <row r="15" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="R16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="R17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="R17" s="6"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="R18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="R18" s="6"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="R19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="R19" s="6"/>
     </row>
     <row r="20" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="I21" t="s">
         <v>1</v>
       </c>
@@ -848,55 +857,55 @@
       <c r="N21">
         <v>48</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="5">
         <f>PRODUCT(J21:N21)</f>
         <v>311875200</v>
       </c>
-      <c r="R21" s="8"/>
+      <c r="R21" s="6"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="R22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R24" s="8"/>
+      <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
       <c r="I25">
         <v>13</v>
       </c>
@@ -912,55 +921,55 @@
       <c r="M25">
         <v>9</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="5">
         <f>PRODUCT(I25:M25)*4</f>
         <v>617760</v>
       </c>
-      <c r="R25" s="8"/>
+      <c r="R25" s="6"/>
     </row>
     <row r="26" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
       <c r="I27" t="s">
         <v>7</v>
       </c>
-      <c r="R27" s="8"/>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="I28">
         <v>4</v>
       </c>
@@ -974,23 +983,23 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <f>PRODUCT(I28:L28)*13</f>
+        <f>PRODUCT(I28:K28)*13</f>
         <v>312</v>
       </c>
-      <c r="R28" s="8"/>
+      <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R29" s="8"/>
+      <c r="R29" s="6"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
         <v>8</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="5">
         <f>N28*N31</f>
-        <v>89856</v>
-      </c>
-      <c r="R30" s="8"/>
+        <v>44928</v>
+      </c>
+      <c r="R30" s="6"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I31">
@@ -1005,31 +1014,31 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="N31">
-        <f>PRODUCT(I31:L31)*12</f>
-        <v>288</v>
-      </c>
-      <c r="R31" s="8"/>
+      <c r="N31" s="9">
+        <f>PRODUCT(I31:J31)*12</f>
+        <v>144</v>
+      </c>
+      <c r="R31" s="6"/>
     </row>
     <row r="32" spans="1:18" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
